--- a/Outdoor Training Exam.xlsx
+++ b/Outdoor Training Exam.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -88,24 +88,15 @@
     <t>Shelter</t>
   </si>
   <si>
-    <t>https://youtu.be/7bThu0sLiDQ</t>
-  </si>
-  <si>
     <t>https://youtu.be/A-0xElqQ5o4</t>
   </si>
   <si>
-    <t>OutdoorTraining</t>
-  </si>
-  <si>
     <t>Outdoor Training</t>
   </si>
   <si>
     <t>FileName</t>
   </si>
   <si>
-    <t>p_2</t>
-  </si>
-  <si>
     <t>p_3</t>
   </si>
   <si>
@@ -115,13 +106,13 @@
     <t>Water</t>
   </si>
   <si>
-    <t>p_7</t>
-  </si>
-  <si>
     <t>https://youtu.be/eJFxLzZepRY</t>
   </si>
   <si>
-    <t>p_1</t>
+    <t>Outdoor Training 2</t>
+  </si>
+  <si>
+    <t>p_70</t>
   </si>
 </sst>
 </file>
@@ -515,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,16 +514,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -569,12 +560,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -592,15 +583,15 @@
         <v>16</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -617,13 +608,13 @@
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -640,16 +631,13 @@
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -667,15 +655,15 @@
         <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -690,18 +678,33 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Outdoor Training Exam.xlsx
+++ b/Outdoor Training Exam.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -109,10 +109,13 @@
     <t>https://youtu.be/eJFxLzZepRY</t>
   </si>
   <si>
-    <t>Outdoor Training 2</t>
-  </si>
-  <si>
-    <t>p_70</t>
+    <t>p_7</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7bThu0sLiDQ</t>
+  </si>
+  <si>
+    <t>BNN</t>
   </si>
 </sst>
 </file>
@@ -514,11 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,7 +534,7 @@
     <col min="9" max="9" width="43.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,8 +565,11 @@
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -586,10 +592,10 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -608,11 +614,9 @@
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -631,11 +635,14 @@
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -657,11 +664,8 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -680,10 +684,13 @@
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -696,15 +703,17 @@
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Outdoor Training Exam.xlsx
+++ b/Outdoor Training Exam.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>https://youtu.be/7bThu0sLiDQ</t>
-  </si>
-  <si>
-    <t>BNN</t>
   </si>
 </sst>
 </file>
@@ -509,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,11 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,7 +531,7 @@
     <col min="9" max="9" width="43.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -565,11 +562,8 @@
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -595,7 +589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -616,7 +610,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -642,7 +636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -665,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -688,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>20</v>
       </c>
